--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -638,7 +642,9 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让我们看第八期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,18 @@
   </si>
   <si>
     <t>18-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>****</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频课件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,23 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="29.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -532,13 +540,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -548,12 +559,15 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -561,14 +575,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -579,11 +596,14 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -594,11 +614,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -608,14 +631,17 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1">
+    <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -625,14 +651,17 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
+    <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -643,198 +672,230 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -516,7 +516,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -565,7 +565,9 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,18 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11~15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>promise+es6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9~10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +115,10 @@
   </si>
   <si>
     <t>视频课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +512,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -540,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
@@ -560,10 +556,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -577,13 +573,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -598,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -616,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -634,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
@@ -654,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>17</v>
@@ -674,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,7 +114,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10~15</t>
+    <t>课时13: 30分钟之后没有声音了！！哭惨了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -521,11 +536,12 @@
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="4" width="29.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -536,16 +552,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -556,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>19</v>
@@ -564,8 +583,9 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -576,14 +596,17 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -594,14 +617,17 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -612,14 +638,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -630,16 +661,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
+        <v>14.15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -650,16 +680,17 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -670,16 +701,17 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -687,7 +719,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1">
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -695,7 +727,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
+    <row r="11" spans="1:7" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -703,7 +735,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
+    <row r="12" spans="1:7" ht="30" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -711,7 +743,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
+    <row r="13" spans="1:7" ht="30" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -719,7 +751,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -727,7 +759,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -735,7 +767,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -666,7 +666,9 @@
       <c r="E6" s="3">
         <v>14.15</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,15 +122,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看了代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10~13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重讲promise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node 基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法 优化 都讲完了。还剩下手写webpack 手写loader 和手写plugin ast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了代码。代码文件夹里 4、es6/8~12，都是没有视频的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,14 +575,15 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="4" width="29.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
@@ -606,7 +655,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+    <row r="4" spans="1:7" ht="41.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -622,9 +671,9 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1">
@@ -641,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -692,7 +741,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -706,158 +755,214 @@
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -865,7 +970,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -873,7 +978,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1">
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -881,7 +986,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -889,7 +994,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1">
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -897,7 +1002,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>node 基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.02.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,11 +170,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用法 优化 都讲完了。还剩下手写webpack 手写loader 和手写plugin ast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看了代码。代码文件夹里 4、es6/8~12，都是没有视频的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经看完webpack4.0的全部教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43-44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo+redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -584,7 +668,7 @@
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -673,7 +757,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1">
@@ -775,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -787,142 +871,208 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="3">
+        <v>41</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
@@ -931,7 +1081,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
     </row>
@@ -940,7 +1090,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
@@ -949,7 +1099,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
@@ -958,7 +1108,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
@@ -967,7 +1117,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
@@ -975,7 +1125,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
@@ -983,7 +1133,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -991,7 +1141,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
@@ -999,7 +1149,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
@@ -1007,7 +1157,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
@@ -1015,7 +1165,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
@@ -1023,7 +1173,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
@@ -1031,7 +1181,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
   </sheetData>

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43-44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mongo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +259,157 @@
   </si>
   <si>
     <t>2019.03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48-49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试+jest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuxt+单测vuex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuxt-login+menuAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://video.zhufengpeixun.cn/my/course/42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41+分享react（无视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-52+分享VUE（无视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux的进程管理和任务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲shell软件安装，进程和服务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell http://www.zhufengpeixun.cn/architecture/html/61.5.devops-shell.html
+软件安装 http://www.zhufengpeixun.cn/architecture/html/61.6.devops-install.html
+系统进程  http://www.zhufengpeixun.cn/architecture/html/61.7.devops-system.html
+服务 http://www.zhufengpeixun.cn/architecture/html/61.8.devops-service.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.javascriptpeixun.cn/course/122/task/13704/show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55-59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67-68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71-75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76-77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.javascriptpeixun.cn/my/course/324</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +438,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -332,12 +487,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,9 +521,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -668,7 +837,7 @@
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1036,21 +1205,21 @@
         <v>54</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>41</v>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -1061,133 +1230,287 @@
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>53</v>
+      </c>
       <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>54</v>
+      </c>
       <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>60</v>
+      </c>
       <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="F36" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/课表.xlsx
+++ b/课表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>上课日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,22 @@
   </si>
   <si>
     <t>http://www.javascriptpeixun.cn/my/course/324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78-79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1486,22 +1502,92 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
